--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
     <t>Il7r</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.623670283777224</v>
+        <v>0.271003</v>
       </c>
       <c r="H2">
-        <v>0.623670283777224</v>
+        <v>0.542006</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1813976635659463</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1308560449753525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.3416727115394</v>
+        <v>40.09512666666667</v>
       </c>
       <c r="N2">
-        <v>36.3416727115394</v>
+        <v>120.28538</v>
       </c>
       <c r="O2">
-        <v>0.6064229912225241</v>
+        <v>0.6247339948340943</v>
       </c>
       <c r="P2">
-        <v>0.6064229912225241</v>
+        <v>0.6247339948340944</v>
       </c>
       <c r="Q2">
-        <v>22.66522133294478</v>
+        <v>10.86589961204667</v>
       </c>
       <c r="R2">
-        <v>22.66522133294478</v>
+        <v>65.19539767228</v>
       </c>
       <c r="S2">
-        <v>0.6064229912225241</v>
+        <v>0.1133252870131247</v>
       </c>
       <c r="T2">
-        <v>0.6064229912225241</v>
+        <v>0.08175021972564191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,867 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.271003</v>
+      </c>
+      <c r="H3">
+        <v>0.542006</v>
+      </c>
+      <c r="I3">
+        <v>0.1813976635659463</v>
+      </c>
+      <c r="J3">
+        <v>0.1308560449753525</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>24.0109</v>
+      </c>
+      <c r="N3">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P3">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q3">
+        <v>6.5070259327</v>
+      </c>
+      <c r="R3">
+        <v>39.0421555962</v>
+      </c>
+      <c r="S3">
+        <v>0.06786465987662264</v>
+      </c>
+      <c r="T3">
+        <v>0.04895598328268361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.271003</v>
+      </c>
+      <c r="H4">
+        <v>0.542006</v>
+      </c>
+      <c r="I4">
+        <v>0.1813976635659463</v>
+      </c>
+      <c r="J4">
+        <v>0.1308560449753525</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.220474</v>
+      </c>
+      <c r="O4">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P4">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q4">
+        <v>0.01991637180733333</v>
+      </c>
+      <c r="R4">
+        <v>0.119498230844</v>
+      </c>
+      <c r="S4">
+        <v>0.0002077166761989832</v>
+      </c>
+      <c r="T4">
+        <v>0.0001498419670270084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.27851</v>
+      </c>
+      <c r="I5">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J5">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>40.09512666666667</v>
+      </c>
+      <c r="N5">
+        <v>120.28538</v>
+      </c>
+      <c r="O5">
+        <v>0.6247339948340943</v>
+      </c>
+      <c r="P5">
+        <v>0.6247339948340944</v>
+      </c>
+      <c r="Q5">
+        <v>30.45238235375555</v>
+      </c>
+      <c r="R5">
+        <v>274.0714411838</v>
+      </c>
+      <c r="S5">
+        <v>0.3176014038125958</v>
+      </c>
+      <c r="T5">
+        <v>0.3436653711344014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.27851</v>
+      </c>
+      <c r="I6">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J6">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>24.0109</v>
+      </c>
+      <c r="N6">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P6">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q6">
+        <v>18.23635858633333</v>
+      </c>
+      <c r="R6">
+        <v>164.127227277</v>
+      </c>
+      <c r="S6">
+        <v>0.1901950730871164</v>
+      </c>
+      <c r="T6">
+        <v>0.2058034366214164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.27851</v>
+      </c>
+      <c r="I7">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J7">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.220474</v>
+      </c>
+      <c r="O7">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P7">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q7">
+        <v>0.05581691263777778</v>
+      </c>
+      <c r="R7">
+        <v>0.5023522137399999</v>
+      </c>
+      <c r="S7">
+        <v>0.0005821393414908632</v>
+      </c>
+      <c r="T7">
+        <v>0.0006299126214298528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.152027</v>
+      </c>
+      <c r="I8">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J8">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>40.09512666666667</v>
+      </c>
+      <c r="N8">
+        <v>120.28538</v>
+      </c>
+      <c r="O8">
+        <v>0.6247339948340943</v>
+      </c>
+      <c r="P8">
+        <v>0.6247339948340944</v>
+      </c>
+      <c r="Q8">
+        <v>2.031847273917778</v>
+      </c>
+      <c r="R8">
+        <v>18.28662546526</v>
+      </c>
+      <c r="S8">
+        <v>0.02119103651834642</v>
+      </c>
+      <c r="T8">
+        <v>0.02293007947186962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.152027</v>
+      </c>
+      <c r="I9">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J9">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.0109</v>
+      </c>
+      <c r="N9">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P9">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q9">
+        <v>1.216768364766667</v>
+      </c>
+      <c r="R9">
+        <v>10.9509152829</v>
+      </c>
+      <c r="S9">
+        <v>0.01269021701735566</v>
+      </c>
+      <c r="T9">
+        <v>0.01373164000124822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.152027</v>
+      </c>
+      <c r="I10">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J10">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.220474</v>
+      </c>
+      <c r="O10">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P10">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q10">
+        <v>0.003724222310888889</v>
+      </c>
+      <c r="R10">
+        <v>0.033518000798</v>
+      </c>
+      <c r="S10">
+        <v>3.884156649250232E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.202910063950399E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.031638</v>
+      </c>
+      <c r="I11">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J11">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>40.09512666666667</v>
+      </c>
+      <c r="N11">
+        <v>120.28538</v>
+      </c>
+      <c r="O11">
+        <v>0.6247339948340943</v>
+      </c>
+      <c r="P11">
+        <v>0.6247339948340944</v>
+      </c>
+      <c r="Q11">
+        <v>13.78788542804889</v>
+      </c>
+      <c r="R11">
+        <v>124.09096885244</v>
+      </c>
+      <c r="S11">
+        <v>0.1437999732397131</v>
+      </c>
+      <c r="T11">
+        <v>0.1556009217191724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.031638</v>
+      </c>
+      <c r="I12">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J12">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>24.0109</v>
+      </c>
+      <c r="N12">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P12">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q12">
+        <v>8.256852284733336</v>
+      </c>
+      <c r="R12">
+        <v>74.31167056260001</v>
+      </c>
+      <c r="S12">
+        <v>0.0861143751001517</v>
+      </c>
+      <c r="T12">
+        <v>0.09318135349383801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.031638</v>
+      </c>
+      <c r="I13">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J13">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.220474</v>
+      </c>
+      <c r="O13">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P13">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q13">
+        <v>0.02527215071244445</v>
+      </c>
+      <c r="R13">
+        <v>0.227449356412</v>
+      </c>
+      <c r="S13">
+        <v>0.000263574470148014</v>
+      </c>
+      <c r="T13">
+        <v>0.0002852047157777015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.623670283777224</v>
-      </c>
-      <c r="H3">
-        <v>0.623670283777224</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>23.5862542265143</v>
-      </c>
-      <c r="N3">
-        <v>23.5862542265143</v>
-      </c>
-      <c r="O3">
-        <v>0.3935770087774759</v>
-      </c>
-      <c r="P3">
-        <v>0.3935770087774759</v>
-      </c>
-      <c r="Q3">
-        <v>14.71004586669192</v>
-      </c>
-      <c r="R3">
-        <v>14.71004586669192</v>
-      </c>
-      <c r="S3">
-        <v>0.3935770087774759</v>
-      </c>
-      <c r="T3">
-        <v>0.3935770087774759</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0689105</v>
+      </c>
+      <c r="H14">
+        <v>0.137821</v>
+      </c>
+      <c r="I14">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J14">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>40.09512666666667</v>
+      </c>
+      <c r="N14">
+        <v>120.28538</v>
+      </c>
+      <c r="O14">
+        <v>0.6247339948340943</v>
+      </c>
+      <c r="P14">
+        <v>0.6247339948340944</v>
+      </c>
+      <c r="Q14">
+        <v>2.762975226163333</v>
+      </c>
+      <c r="R14">
+        <v>16.57785135698</v>
+      </c>
+      <c r="S14">
+        <v>0.0288162942503143</v>
+      </c>
+      <c r="T14">
+        <v>0.02078740278300922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0689105</v>
+      </c>
+      <c r="H15">
+        <v>0.137821</v>
+      </c>
+      <c r="I15">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J15">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.0109</v>
+      </c>
+      <c r="N15">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P15">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q15">
+        <v>1.65460312445</v>
+      </c>
+      <c r="R15">
+        <v>9.9276187467</v>
+      </c>
+      <c r="S15">
+        <v>0.0172565899433881</v>
+      </c>
+      <c r="T15">
+        <v>0.01244850162544831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0689105</v>
+      </c>
+      <c r="H16">
+        <v>0.137821</v>
+      </c>
+      <c r="I16">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J16">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.220474</v>
+      </c>
+      <c r="O16">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P16">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q16">
+        <v>0.005064324525666667</v>
+      </c>
+      <c r="R16">
+        <v>0.030385947154</v>
+      </c>
+      <c r="S16">
+        <v>5.2818086940772E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.810173639706815E-05</v>
       </c>
     </row>
   </sheetData>
